--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.118296</v>
+        <v>3.961421333333333</v>
       </c>
       <c r="H2">
-        <v>21.354888</v>
+        <v>11.884264</v>
       </c>
       <c r="I2">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="J2">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.093326</v>
+        <v>0.8470570000000001</v>
       </c>
       <c r="N2">
-        <v>3.279978</v>
+        <v>2.541171</v>
       </c>
       <c r="O2">
-        <v>0.397438973321003</v>
+        <v>0.3381925443743041</v>
       </c>
       <c r="P2">
-        <v>0.3974389733210029</v>
+        <v>0.3381925443743041</v>
       </c>
       <c r="Q2">
-        <v>7.782618092496</v>
+        <v>3.355549670349334</v>
       </c>
       <c r="R2">
-        <v>70.04356283246399</v>
+        <v>30.199947033144</v>
       </c>
       <c r="S2">
-        <v>0.1782199085293385</v>
+        <v>0.105346774170258</v>
       </c>
       <c r="T2">
-        <v>0.1782199085293384</v>
+        <v>0.105346774170258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.118296</v>
+        <v>3.961421333333333</v>
       </c>
       <c r="H3">
-        <v>21.354888</v>
+        <v>11.884264</v>
       </c>
       <c r="I3">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="J3">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.386846666666667</v>
+        <v>1.386846666666666</v>
       </c>
       <c r="N3">
-        <v>4.16054</v>
+        <v>4.160539999999999</v>
       </c>
       <c r="O3">
-        <v>0.5041377552108477</v>
+        <v>0.5537067787138554</v>
       </c>
       <c r="P3">
-        <v>0.5041377552108477</v>
+        <v>0.5537067787138554</v>
       </c>
       <c r="Q3">
-        <v>9.871985079946667</v>
+        <v>5.493883971395555</v>
       </c>
       <c r="R3">
-        <v>88.84786571952</v>
+        <v>49.44495574255999</v>
       </c>
       <c r="S3">
-        <v>0.2260658633175753</v>
+        <v>0.1724793285482658</v>
       </c>
       <c r="T3">
-        <v>0.2260658633175752</v>
+        <v>0.1724793285482657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.118296</v>
+        <v>3.961421333333333</v>
       </c>
       <c r="H4">
-        <v>21.354888</v>
+        <v>11.884264</v>
       </c>
       <c r="I4">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="J4">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.8122659999999999</v>
       </c>
       <c r="O4">
-        <v>0.0984232714681494</v>
+        <v>0.1081006769118404</v>
       </c>
       <c r="P4">
-        <v>0.0984232714681494</v>
+        <v>0.1081006769118404</v>
       </c>
       <c r="Q4">
-        <v>1.927316606245333</v>
+        <v>1.072575953580444</v>
       </c>
       <c r="R4">
-        <v>17.345849456208</v>
+        <v>9.653183582223999</v>
       </c>
       <c r="S4">
-        <v>0.04413504365623538</v>
+        <v>0.03367329584202667</v>
       </c>
       <c r="T4">
-        <v>0.04413504365623538</v>
+        <v>0.03367329584202667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>19.113044</v>
       </c>
       <c r="I5">
-        <v>0.4013454332903816</v>
+        <v>0.5009735319462221</v>
       </c>
       <c r="J5">
-        <v>0.4013454332903816</v>
+        <v>0.500973531946222</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.093326</v>
+        <v>0.8470570000000001</v>
       </c>
       <c r="N5">
-        <v>3.279978</v>
+        <v>2.541171</v>
       </c>
       <c r="O5">
-        <v>0.397438973321003</v>
+        <v>0.3381925443743041</v>
       </c>
       <c r="P5">
-        <v>0.3974389733210029</v>
+        <v>0.3381925443743041</v>
       </c>
       <c r="Q5">
-        <v>6.965595981448</v>
+        <v>5.396612570502667</v>
       </c>
       <c r="R5">
-        <v>62.690363833032</v>
+        <v>48.569513134524</v>
       </c>
       <c r="S5">
-        <v>0.1595103169540023</v>
+        <v>0.1694255134330746</v>
       </c>
       <c r="T5">
-        <v>0.1595103169540023</v>
+        <v>0.1694255134330745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>19.113044</v>
       </c>
       <c r="I6">
-        <v>0.4013454332903816</v>
+        <v>0.5009735319462221</v>
       </c>
       <c r="J6">
-        <v>0.4013454332903816</v>
+        <v>0.500973531946222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.386846666666667</v>
+        <v>1.386846666666666</v>
       </c>
       <c r="N6">
-        <v>4.16054</v>
+        <v>4.160539999999999</v>
       </c>
       <c r="O6">
-        <v>0.5041377552108477</v>
+        <v>0.5537067787138554</v>
       </c>
       <c r="P6">
-        <v>0.5041377552108477</v>
+        <v>0.5537067787138554</v>
       </c>
       <c r="Q6">
-        <v>8.835620453751112</v>
+        <v>8.835620453751108</v>
       </c>
       <c r="R6">
-        <v>79.52058408376</v>
+        <v>79.52058408375999</v>
       </c>
       <c r="S6">
-        <v>0.202333385803138</v>
+        <v>0.2773924405948454</v>
       </c>
       <c r="T6">
-        <v>0.202333385803138</v>
+        <v>0.2773924405948453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>19.113044</v>
       </c>
       <c r="I7">
-        <v>0.4013454332903816</v>
+        <v>0.5009735319462221</v>
       </c>
       <c r="J7">
-        <v>0.4013454332903816</v>
+        <v>0.500973531946222</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.8122659999999999</v>
       </c>
       <c r="O7">
-        <v>0.0984232714681494</v>
+        <v>0.1081006769118404</v>
       </c>
       <c r="P7">
-        <v>0.0984232714681494</v>
+        <v>0.1081006769118404</v>
       </c>
       <c r="Q7">
         <v>1.724986199744889</v>
@@ -880,10 +880,10 @@
         <v>15.524875797704</v>
       </c>
       <c r="S7">
-        <v>0.03950173053324127</v>
+        <v>0.05415557791830212</v>
       </c>
       <c r="T7">
-        <v>0.03950173053324127</v>
+        <v>0.05415557791830211</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>7.154496</v>
       </c>
       <c r="I8">
-        <v>0.1502337512064693</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="J8">
-        <v>0.1502337512064694</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.093326</v>
+        <v>0.8470570000000001</v>
       </c>
       <c r="N8">
-        <v>3.279978</v>
+        <v>2.541171</v>
       </c>
       <c r="O8">
-        <v>0.397438973321003</v>
+        <v>0.3381925443743041</v>
       </c>
       <c r="P8">
-        <v>0.3974389733210029</v>
+        <v>0.3381925443743041</v>
       </c>
       <c r="Q8">
-        <v>2.607398831232</v>
+        <v>2.020088639424</v>
       </c>
       <c r="R8">
-        <v>23.466589481088</v>
+        <v>18.180797754816</v>
       </c>
       <c r="S8">
-        <v>0.05970874783766217</v>
+        <v>0.0634202567709716</v>
       </c>
       <c r="T8">
-        <v>0.05970874783766217</v>
+        <v>0.0634202567709716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>7.154496</v>
       </c>
       <c r="I9">
-        <v>0.1502337512064693</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="J9">
-        <v>0.1502337512064694</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.386846666666667</v>
+        <v>1.386846666666666</v>
       </c>
       <c r="N9">
-        <v>4.16054</v>
+        <v>4.160539999999999</v>
       </c>
       <c r="O9">
-        <v>0.5041377552108477</v>
+        <v>0.5537067787138554</v>
       </c>
       <c r="P9">
-        <v>0.5041377552108477</v>
+        <v>0.5537067787138554</v>
       </c>
       <c r="Q9">
-        <v>3.30739630976</v>
+        <v>3.307396309759999</v>
       </c>
       <c r="R9">
         <v>29.76656678784</v>
       </c>
       <c r="S9">
-        <v>0.07573850609013444</v>
+        <v>0.1038350095707444</v>
       </c>
       <c r="T9">
-        <v>0.07573850609013445</v>
+        <v>0.1038350095707444</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>7.154496</v>
       </c>
       <c r="I10">
-        <v>0.1502337512064693</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="J10">
-        <v>0.1502337512064694</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>0.8122659999999999</v>
       </c>
       <c r="O10">
-        <v>0.0984232714681494</v>
+        <v>0.1081006769118404</v>
       </c>
       <c r="P10">
-        <v>0.0984232714681494</v>
+        <v>0.1081006769118404</v>
       </c>
       <c r="Q10">
         <v>0.6457059831039998</v>
@@ -1066,10 +1066,10 @@
         <v>5.811353847935999</v>
       </c>
       <c r="S10">
-        <v>0.01478649727867275</v>
+        <v>0.02027180315151164</v>
       </c>
       <c r="T10">
-        <v>0.01478649727867275</v>
+        <v>0.02027180315151165</v>
       </c>
     </row>
   </sheetData>
